--- a/롤링볼_title_word.xlsx
+++ b/롤링볼_title_word.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,64 +441,69 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>com.movisoft.rollingball</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>com.prishka.rollsky</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>com.besaviorgames.musicroll</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>com.movisoft.rollingball</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>com.bfgame.app.rollingball</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>com.mamasarcadsky.skrollimg</t>
+          <t>com.balldorsoli.rollingsky</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>com.no1.rolling.ball3D.sky.race</t>
+          <t>com.atesgamestudio.rollance</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>com.prishka.rollsky</t>
+          <t>com.dino.rolling.skyball.balance</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>com.cactusisland.rollingballpuzzle</t>
+          <t>com.atreus.ballsnropes</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>com.abi.alphabet.run.rolling.ball</t>
+          <t>com.pronetis.gyrosphere</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>com.balldorsoli.rollingsky</t>
+          <t>com.doodoo.hop.ball.magic.tiles.edm.dancing.color.hooper.music.game</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>total score</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>롤링</t>
+          <t>볼</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0.2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2</v>
+        <v>0.3222024913224023</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3222024913224023</v>
+        <v>0.2</v>
       </c>
       <c r="E2" t="n">
         <v>0.2</v>
@@ -507,35 +512,38 @@
         <v>0.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2</v>
+        <v>0.2289440478997757</v>
       </c>
       <c r="H2" t="n">
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2676832288953427</v>
+        <v>0.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2289440478997757</v>
+        <v>0.2</v>
       </c>
       <c r="K2" t="n">
         <v>0.2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.487164991287798</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>볼</t>
+          <t>롤링</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0.2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2</v>
+        <v>0.3222024913224023</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3222024913224023</v>
+        <v>0.2</v>
       </c>
       <c r="E3" t="n">
         <v>0.2</v>
@@ -544,35 +552,38 @@
         <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2</v>
+        <v>0.0842238084008974</v>
       </c>
       <c r="H3" t="n">
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2676832288953427</v>
+        <v>0.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2289440478997757</v>
+        <v>0.2</v>
       </c>
       <c r="K3" t="n">
         <v>0.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.079612536257529</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>고양이</t>
+          <t>롤</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2</v>
+        <v>0.1185316724517319</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1185316724517319</v>
+        <v>0.2</v>
       </c>
       <c r="E4" t="n">
         <v>0.2</v>
@@ -581,35 +592,38 @@
         <v>0.2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2</v>
+        <v>0.2289440478997757</v>
       </c>
       <c r="H4" t="n">
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2676832288953427</v>
+        <v>0.2</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0842238084008974</v>
+        <v>0.2</v>
       </c>
       <c r="K4" t="n">
         <v>0.2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5.814007761214677</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>알파벳</t>
+          <t>랜스</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0.2</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2</v>
+        <v>0.1185316724517319</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1185316724517319</v>
+        <v>0.2</v>
       </c>
       <c r="E5" t="n">
         <v>0.2</v>
@@ -618,35 +632,38 @@
         <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2</v>
+        <v>0.2289440478997757</v>
       </c>
       <c r="H5" t="n">
         <v>0.2</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09847515665698596</v>
+        <v>0.2</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2289440478997757</v>
+        <v>0.2</v>
       </c>
       <c r="K5" t="n">
         <v>0.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.814007761214677</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>런</t>
+          <t>어드벤처</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0.2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2</v>
+        <v>0.1185316724517319</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1185316724517319</v>
+        <v>0.2</v>
       </c>
       <c r="E6" t="n">
         <v>0.2</v>
@@ -655,19 +672,22 @@
         <v>0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2</v>
+        <v>0.2289440478997757</v>
       </c>
       <c r="H6" t="n">
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09847515665698596</v>
+        <v>0.2</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2289440478997757</v>
+        <v>0.2</v>
       </c>
       <c r="K6" t="n">
         <v>0.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5.814007761214677</v>
       </c>
     </row>
   </sheetData>
